--- a/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S8/S8_lossmod.xlsx
+++ b/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S8/S8_lossmod.xlsx
@@ -14,210 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Temperature (Celsius)</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>93.42113597246127</t>
-  </si>
-  <si>
-    <t>95.03531841652324</t>
-  </si>
-  <si>
-    <t>96.49657831325301</t>
-  </si>
-  <si>
-    <t>97.79035161052373</t>
-  </si>
-  <si>
-    <t>99.3681239242685</t>
-  </si>
-  <si>
-    <t>100.81239242685027</t>
-  </si>
-  <si>
-    <t>102.59648881239242</t>
-  </si>
-  <si>
-    <t>104.4655421686747</t>
-  </si>
-  <si>
-    <t>106.33459552495697</t>
-  </si>
-  <si>
-    <t>108.20364888123925</t>
-  </si>
-  <si>
-    <t>110.07270223752151</t>
-  </si>
-  <si>
-    <t>111.68688468158348</t>
-  </si>
-  <si>
-    <t>113.28407573149741</t>
-  </si>
-  <si>
-    <t>115.01908586727863</t>
-  </si>
-  <si>
-    <t>116.59739759036145</t>
-  </si>
-  <si>
-    <t>118.39848537005163</t>
-  </si>
-  <si>
-    <t>120.22978007267163</t>
-  </si>
-  <si>
-    <t>122.13659208261618</t>
-  </si>
-  <si>
-    <t>124.00564543889845</t>
-  </si>
-  <si>
-    <t>125.8746987951807</t>
-  </si>
-  <si>
-    <t>127.74375215146299</t>
-  </si>
-  <si>
-    <t>129.61280550774526</t>
-  </si>
-  <si>
-    <t>131.4478760757315</t>
-  </si>
-  <si>
-    <t>133.3509122203098</t>
-  </si>
-  <si>
-    <t>135.21996557659207</t>
-  </si>
-  <si>
-    <t>137.08901893287435</t>
-  </si>
-  <si>
-    <t>138.95807228915663</t>
-  </si>
-  <si>
-    <t>140.82712564543888</t>
-  </si>
-  <si>
-    <t>142.69617900172116</t>
-  </si>
-  <si>
-    <t>144.5652323580034</t>
-  </si>
-  <si>
-    <t>146.4342857142857</t>
-  </si>
-  <si>
-    <t>148.23537349397589</t>
-  </si>
-  <si>
-    <t>149.40777969018933</t>
-  </si>
-  <si>
-    <t>435729.2301041154</t>
-  </si>
-  <si>
-    <t>552600.9801200007</t>
-  </si>
-  <si>
-    <t>726459.6754415849</t>
-  </si>
-  <si>
-    <t>921233.5179914993</t>
-  </si>
-  <si>
-    <t>1190677.0717059132</t>
-  </si>
-  <si>
-    <t>1545945.6737023294</t>
-  </si>
-  <si>
-    <t>2088817.146112372</t>
-  </si>
-  <si>
-    <t>2455682.7066567414</t>
-  </si>
-  <si>
-    <t>2401556.299530685</t>
-  </si>
-  <si>
-    <t>2073310.033700199</t>
-  </si>
-  <si>
-    <t>1700959.5697558788</t>
-  </si>
-  <si>
-    <t>1386063.700785873</t>
-  </si>
-  <si>
-    <t>1080672.6976681552</t>
-  </si>
-  <si>
-    <t>860070.265826364</t>
-  </si>
-  <si>
-    <t>696681.0760791288</t>
-  </si>
-  <si>
-    <t>562078.2810164305</t>
-  </si>
-  <si>
-    <t>467057.70961561124</t>
-  </si>
-  <si>
-    <t>390700.23647435376</t>
-  </si>
-  <si>
-    <t>337322.1903544463</t>
-  </si>
-  <si>
-    <t>293440.32366920274</t>
-  </si>
-  <si>
-    <t>265162.2496494067</t>
-  </si>
-  <si>
-    <t>235943.22289735512</t>
-  </si>
-  <si>
-    <t>217182.37068852366</t>
-  </si>
-  <si>
-    <t>198693.42228730323</t>
-  </si>
-  <si>
-    <t>183149.57164991886</t>
-  </si>
-  <si>
-    <t>174168.37717254832</t>
-  </si>
-  <si>
-    <t>165514.1390533475</t>
-  </si>
-  <si>
-    <t>158534.3363986204</t>
-  </si>
-  <si>
-    <t>147641.9647189205</t>
-  </si>
-  <si>
-    <t>138728.32553091357</t>
-  </si>
-  <si>
-    <t>130486.88951258067</t>
-  </si>
-  <si>
-    <t>126920.24841896916</t>
-  </si>
-  <si>
-    <t>121125.25847507892</t>
+    <t>Loss modulus (Pa)</t>
   </si>
 </sst>
 </file>
@@ -590,267 +392,267 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
+      <c r="A2">
+        <v>93.42113597246127</v>
+      </c>
+      <c r="B2">
+        <v>435729.2301041154</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
+      <c r="A3">
+        <v>95.03531841652324</v>
+      </c>
+      <c r="B3">
+        <v>552600.9801200007</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
+      <c r="A4">
+        <v>96.49657831325301</v>
+      </c>
+      <c r="B4">
+        <v>726459.6754415849</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>38</v>
+      <c r="A5">
+        <v>97.79035161052373</v>
+      </c>
+      <c r="B5">
+        <v>921233.5179914993</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>39</v>
+      <c r="A6">
+        <v>99.3681239242685</v>
+      </c>
+      <c r="B6">
+        <v>1190677.071705913</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>40</v>
+      <c r="A7">
+        <v>100.8123924268503</v>
+      </c>
+      <c r="B7">
+        <v>1545945.673702329</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
+      <c r="A8">
+        <v>102.5964888123924</v>
+      </c>
+      <c r="B8">
+        <v>2088817.146112372</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
+      <c r="A9">
+        <v>104.4655421686747</v>
+      </c>
+      <c r="B9">
+        <v>2455682.706656741</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>43</v>
+      <c r="A10">
+        <v>106.334595524957</v>
+      </c>
+      <c r="B10">
+        <v>2401556.299530685</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>44</v>
+      <c r="A11">
+        <v>108.2036488812392</v>
+      </c>
+      <c r="B11">
+        <v>2073310.033700199</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>45</v>
+      <c r="A12">
+        <v>110.0727022375215</v>
+      </c>
+      <c r="B12">
+        <v>1700959.569755879</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>46</v>
+      <c r="A13">
+        <v>111.6868846815835</v>
+      </c>
+      <c r="B13">
+        <v>1386063.700785873</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>47</v>
+      <c r="A14">
+        <v>113.2840757314974</v>
+      </c>
+      <c r="B14">
+        <v>1080672.697668155</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>48</v>
+      <c r="A15">
+        <v>115.0190858672786</v>
+      </c>
+      <c r="B15">
+        <v>860070.265826364</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>49</v>
+      <c r="A16">
+        <v>116.5973975903615</v>
+      </c>
+      <c r="B16">
+        <v>696681.0760791288</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>50</v>
+      <c r="A17">
+        <v>118.3984853700516</v>
+      </c>
+      <c r="B17">
+        <v>562078.2810164305</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>51</v>
+      <c r="A18">
+        <v>120.2297800726716</v>
+      </c>
+      <c r="B18">
+        <v>467057.7096156112</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>52</v>
+      <c r="A19">
+        <v>122.1365920826162</v>
+      </c>
+      <c r="B19">
+        <v>390700.2364743538</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>53</v>
+      <c r="A20">
+        <v>124.0056454388985</v>
+      </c>
+      <c r="B20">
+        <v>337322.1903544463</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>54</v>
+      <c r="A21">
+        <v>125.8746987951807</v>
+      </c>
+      <c r="B21">
+        <v>293440.3236692027</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>55</v>
+      <c r="A22">
+        <v>127.743752151463</v>
+      </c>
+      <c r="B22">
+        <v>265162.2496494067</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>56</v>
+      <c r="A23">
+        <v>129.6128055077453</v>
+      </c>
+      <c r="B23">
+        <v>235943.2228973551</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>57</v>
+      <c r="A24">
+        <v>131.4478760757315</v>
+      </c>
+      <c r="B24">
+        <v>217182.3706885237</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>58</v>
+      <c r="A25">
+        <v>133.3509122203098</v>
+      </c>
+      <c r="B25">
+        <v>198693.4222873032</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>59</v>
+      <c r="A26">
+        <v>135.2199655765921</v>
+      </c>
+      <c r="B26">
+        <v>183149.5716499189</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>60</v>
+      <c r="A27">
+        <v>137.0890189328744</v>
+      </c>
+      <c r="B27">
+        <v>174168.3771725483</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>61</v>
+      <c r="A28">
+        <v>138.9580722891566</v>
+      </c>
+      <c r="B28">
+        <v>165514.1390533475</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>62</v>
+      <c r="A29">
+        <v>140.8271256454389</v>
+      </c>
+      <c r="B29">
+        <v>158534.3363986204</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>63</v>
+      <c r="A30">
+        <v>142.6961790017212</v>
+      </c>
+      <c r="B30">
+        <v>147641.9647189205</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>64</v>
+      <c r="A31">
+        <v>144.5652323580034</v>
+      </c>
+      <c r="B31">
+        <v>138728.3255309136</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>65</v>
+      <c r="A32">
+        <v>146.4342857142857</v>
+      </c>
+      <c r="B32">
+        <v>130486.8895125807</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>66</v>
+      <c r="A33">
+        <v>148.2353734939759</v>
+      </c>
+      <c r="B33">
+        <v>126920.2484189692</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>67</v>
+      <c r="A34">
+        <v>149.4077796901893</v>
+      </c>
+      <c r="B34">
+        <v>121125.2584750789</v>
       </c>
     </row>
   </sheetData>
